--- a/data.xlsx
+++ b/data.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -46,11 +53,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +421,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <cols>
+    <col width="20.7109375" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>123.456</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gym</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Damn</t>
+        </is>
+      </c>
+      <c r="D7">
+        <f>SUM(D3:D6)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>